--- a/BOOM BOUND_.xlsx
+++ b/BOOM BOUND_.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲームプログラミング　チーム制作\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C9AAF5-77F8-410D-9097-A2693262F515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FB3670-2D14-4D66-9E5C-59FAE2A77E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
   </bookViews>
   <sheets>
     <sheet name="タスクリスト" sheetId="2" r:id="rId1"/>
-    <sheet name="概要" sheetId="1" r:id="rId2"/>
-    <sheet name="タイトル" sheetId="3" r:id="rId3"/>
-    <sheet name="メインゲーム" sheetId="4" r:id="rId4"/>
-    <sheet name="プレイヤー" sheetId="6" r:id="rId5"/>
-    <sheet name="操作" sheetId="7" r:id="rId6"/>
-    <sheet name="弾" sheetId="8" r:id="rId7"/>
-    <sheet name="壁" sheetId="9" r:id="rId8"/>
-    <sheet name="ターボ" sheetId="10" r:id="rId9"/>
-    <sheet name="アイテム" sheetId="11" r:id="rId10"/>
+    <sheet name="ゲームタイトル" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId4"/>
+    <sheet name="概要" sheetId="1" r:id="rId5"/>
+    <sheet name="タイトル" sheetId="3" r:id="rId6"/>
+    <sheet name="メインゲーム" sheetId="4" r:id="rId7"/>
+    <sheet name="プレイヤー" sheetId="6" r:id="rId8"/>
+    <sheet name="操作" sheetId="7" r:id="rId9"/>
+    <sheet name="弾" sheetId="8" r:id="rId10"/>
+    <sheet name="壁" sheetId="9" r:id="rId11"/>
+    <sheet name="ターボ" sheetId="10" r:id="rId12"/>
+    <sheet name="アイテム" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="300">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -4220,6 +4223,77 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームタイトル画面の仕様</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタート画面の仕様</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタート仕様</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームタイトル仕様</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー仕様</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバーに関する仕様</t>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきなり詳細</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲームプレイ開始前の画面です</t>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -26769,15 +26843,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92698E37-5733-4F20-8846-ABFF099610B6}">
-  <dimension ref="B1:J20"/>
+  <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="7" max="7" width="3.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26851,10 +26927,10 @@
         <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26865,10 +26941,10 @@
         <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26879,10 +26955,10 @@
         <v>27</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26893,10 +26969,10 @@
         <v>27</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26907,10 +26983,10 @@
         <v>27</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26921,10 +26997,10 @@
         <v>27</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26935,24 +27011,783 @@
         <v>27</v>
       </c>
       <c r="I18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G19" s="7">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G20" s="7">
+        <v>11</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:10" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G21" s="7">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C9E95-6BDE-49B3-A64F-91FD6FFCEF0F}">
+  <dimension ref="B1:AA85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F37" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="W37" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>285</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F40" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F41" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F42" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E44" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E64" t="s">
+        <v>228</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C75" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76" spans="3:18" ht="22.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C77" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E79" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F80" t="s">
+        <v>237</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C83" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FD9C7F-8B4F-4CDA-AEA0-8E99FC9E7847}">
+  <dimension ref="B1:AD47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:5" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D23" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F30" t="s">
+        <v>242</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H34" t="s">
+        <v>142</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T35" s="3"/>
+    </row>
+    <row r="40" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H40" t="s">
+        <v>147</v>
+      </c>
+      <c r="O40" t="s">
+        <v>148</v>
+      </c>
+      <c r="V40" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AD41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E43" t="s">
+        <v>152</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFD11C-337D-4996-8E8C-35E79D64D613}">
+  <dimension ref="A1:X65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:15" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>191</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31"/>
+      <c r="C31" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>193</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="42" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H46" t="s">
+        <v>196</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G48" t="s">
+        <v>170</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D49" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="4:24" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D63" t="s">
+        <v>165</v>
+      </c>
+      <c r="X63" s="3"/>
+    </row>
+    <row r="65" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C417A5-0516-422E-A4D8-6BA38B16BCCD}">
   <dimension ref="B1:AM35"/>
   <sheetViews>
@@ -27106,10 +27941,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9839B64-71A0-4955-A28D-4A6663AC8FCF}">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:3" s="5" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0D5D3D-3B0A-4191-A75F-CE1E728D2870}">
+  <dimension ref="B1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:2" s="5" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDA9595-AE02-4CA5-9EED-9826D3B3165D}">
+  <dimension ref="B1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:2" s="5" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CFBE85-6A71-41DB-A1E8-AEA03B908680}">
   <dimension ref="B1:P83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -27220,7 +28140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B753D0-280F-4E93-9E89-5A0749760414}">
   <dimension ref="A1:G80"/>
   <sheetViews>
@@ -27349,7 +28269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D7C2F9-8E5F-480D-A281-69F73CB6AA7B}">
   <dimension ref="A1:AM120"/>
   <sheetViews>
@@ -27829,7 +28749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEF3D48-989C-4B90-AA3D-AB3FF0B7A686}">
   <dimension ref="B1:AB105"/>
   <sheetViews>
@@ -28186,7 +29106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD97DC6-600F-4198-AFE9-B2BE881F2FCF}">
   <dimension ref="B1:C29"/>
   <sheetViews>
@@ -28224,720 +29144,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C9E95-6BDE-49B3-A64F-91FD6FFCEF0F}">
-  <dimension ref="B1:AA85"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
-        <v>274</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D26" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D31" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F37" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="W37" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D39" t="s">
-        <v>285</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F40" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F41" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F42" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="L42" s="3"/>
-      <c r="AA42" s="3"/>
-    </row>
-    <row r="43" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E44" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C60" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C62" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D63" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E64" t="s">
-        <v>228</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E65" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="67" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C67" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="69" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C69" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C73" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="75" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C75" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="3:18" ht="22.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C77" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D78" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E79" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="80" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F80" t="s">
-        <v>237</v>
-      </c>
-      <c r="R80" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G81" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C83" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FD9C7F-8B4F-4CDA-AEA0-8E99FC9E7847}">
-  <dimension ref="B1:AD47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="2:5" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D23" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F30" t="s">
-        <v>242</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H34" t="s">
-        <v>142</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="T35" s="3"/>
-    </row>
-    <row r="40" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H40" t="s">
-        <v>147</v>
-      </c>
-      <c r="O40" t="s">
-        <v>148</v>
-      </c>
-      <c r="V40" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AD41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E43" t="s">
-        <v>152</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFD11C-337D-4996-8E8C-35E79D64D613}">
-  <dimension ref="A1:X65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="2:15" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>191</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31"/>
-      <c r="C31" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D33" t="s">
-        <v>193</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G39" t="s">
-        <v>102</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G40" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="42" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D42" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F44" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H46" t="s">
-        <v>196</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G48" t="s">
-        <v>170</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D49" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D53" s="15"/>
-    </row>
-    <row r="54" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="4:24" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D59" s="15"/>
-    </row>
-    <row r="60" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D60" s="15"/>
-    </row>
-    <row r="61" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D61" s="15"/>
-    </row>
-    <row r="62" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D62" s="15"/>
-    </row>
-    <row r="63" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D63" t="s">
-        <v>165</v>
-      </c>
-      <c r="X63" s="3"/>
-    </row>
-    <row r="65" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/BOOM BOUND_.xlsx
+++ b/BOOM BOUND_.xlsx
@@ -8,24 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲームプログラミング　チーム制作\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FB3670-2D14-4D66-9E5C-59FAE2A77E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C9AAF5-77F8-410D-9097-A2693262F515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
   </bookViews>
   <sheets>
     <sheet name="タスクリスト" sheetId="2" r:id="rId1"/>
-    <sheet name="ゲームタイトル" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId4"/>
-    <sheet name="概要" sheetId="1" r:id="rId5"/>
-    <sheet name="タイトル" sheetId="3" r:id="rId6"/>
-    <sheet name="メインゲーム" sheetId="4" r:id="rId7"/>
-    <sheet name="プレイヤー" sheetId="6" r:id="rId8"/>
-    <sheet name="操作" sheetId="7" r:id="rId9"/>
-    <sheet name="弾" sheetId="8" r:id="rId10"/>
-    <sheet name="壁" sheetId="9" r:id="rId11"/>
-    <sheet name="ターボ" sheetId="10" r:id="rId12"/>
-    <sheet name="アイテム" sheetId="11" r:id="rId13"/>
+    <sheet name="概要" sheetId="1" r:id="rId2"/>
+    <sheet name="タイトル" sheetId="3" r:id="rId3"/>
+    <sheet name="メインゲーム" sheetId="4" r:id="rId4"/>
+    <sheet name="プレイヤー" sheetId="6" r:id="rId5"/>
+    <sheet name="操作" sheetId="7" r:id="rId6"/>
+    <sheet name="弾" sheetId="8" r:id="rId7"/>
+    <sheet name="壁" sheetId="9" r:id="rId8"/>
+    <sheet name="ターボ" sheetId="10" r:id="rId9"/>
+    <sheet name="アイテム" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="292">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -4223,77 +4220,6 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームタイトル画面の仕様</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームスタート画面の仕様</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームスタート仕様</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームタイトル仕様</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームオーバー仕様</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームオーバーに関する仕様</t>
-    <rPh sb="8" eb="9">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いきなり詳細</t>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ゲームプレイ開始前の画面です</t>
-    <rPh sb="7" eb="9">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -26843,17 +26769,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92698E37-5733-4F20-8846-ABFF099610B6}">
-  <dimension ref="B1:J23"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="7" max="7" width="3.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26927,10 +26851,10 @@
         <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26941,10 +26865,10 @@
         <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26955,10 +26879,10 @@
         <v>27</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26969,10 +26893,10 @@
         <v>27</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26983,10 +26907,10 @@
         <v>27</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26997,10 +26921,10 @@
         <v>27</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27011,783 +26935,24 @@
         <v>27</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="7">
-        <v>10</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G20" s="7">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="7">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="6" t="s">
+    <row r="20" spans="2:10" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C9E95-6BDE-49B3-A64F-91FD6FFCEF0F}">
-  <dimension ref="B1:AA85"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
-        <v>274</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D26" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D31" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F37" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="W37" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D39" t="s">
-        <v>285</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F40" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F41" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F42" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="L42" s="3"/>
-      <c r="AA42" s="3"/>
-    </row>
-    <row r="43" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E44" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C60" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C62" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D63" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E64" t="s">
-        <v>228</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E65" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="67" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C67" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="69" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C69" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C73" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="75" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C75" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="3:18" ht="22.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C77" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D78" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E79" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="80" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F80" t="s">
-        <v>237</v>
-      </c>
-      <c r="R80" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G81" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C83" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FD9C7F-8B4F-4CDA-AEA0-8E99FC9E7847}">
-  <dimension ref="B1:AD47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="2:5" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D23" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F30" t="s">
-        <v>242</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H34" t="s">
-        <v>142</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="T35" s="3"/>
-    </row>
-    <row r="40" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H40" t="s">
-        <v>147</v>
-      </c>
-      <c r="O40" t="s">
-        <v>148</v>
-      </c>
-      <c r="V40" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AD41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E43" t="s">
-        <v>152</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFD11C-337D-4996-8E8C-35E79D64D613}">
-  <dimension ref="A1:X65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="2:15" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>191</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31"/>
-      <c r="C31" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D33" t="s">
-        <v>193</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G39" t="s">
-        <v>102</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G40" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="42" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D42" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F44" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H46" t="s">
-        <v>196</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G48" t="s">
-        <v>170</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D49" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D53" s="15"/>
-    </row>
-    <row r="54" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="4:24" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D59" s="15"/>
-    </row>
-    <row r="60" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D60" s="15"/>
-    </row>
-    <row r="61" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D61" s="15"/>
-    </row>
-    <row r="62" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D62" s="15"/>
-    </row>
-    <row r="63" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D63" t="s">
-        <v>165</v>
-      </c>
-      <c r="X63" s="3"/>
-    </row>
-    <row r="65" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C417A5-0516-422E-A4D8-6BA38B16BCCD}">
   <dimension ref="B1:AM35"/>
   <sheetViews>
@@ -27941,95 +27106,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9839B64-71A0-4955-A28D-4A6663AC8FCF}">
-  <dimension ref="B1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="2:3" s="5" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0D5D3D-3B0A-4191-A75F-CE1E728D2870}">
-  <dimension ref="B1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="2:2" s="5" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDA9595-AE02-4CA5-9EED-9826D3B3165D}">
-  <dimension ref="B1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="2:2" s="5" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CFBE85-6A71-41DB-A1E8-AEA03B908680}">
   <dimension ref="B1:P83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -28140,7 +27220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B753D0-280F-4E93-9E89-5A0749760414}">
   <dimension ref="A1:G80"/>
   <sheetViews>
@@ -28269,7 +27349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D7C2F9-8E5F-480D-A281-69F73CB6AA7B}">
   <dimension ref="A1:AM120"/>
   <sheetViews>
@@ -28749,7 +27829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEF3D48-989C-4B90-AA3D-AB3FF0B7A686}">
   <dimension ref="B1:AB105"/>
   <sheetViews>
@@ -29106,7 +28186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD97DC6-600F-4198-AFE9-B2BE881F2FCF}">
   <dimension ref="B1:C29"/>
   <sheetViews>
@@ -29144,4 +28224,720 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C9E95-6BDE-49B3-A64F-91FD6FFCEF0F}">
+  <dimension ref="B1:AA85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F37" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="W37" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>285</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F40" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F41" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F42" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="4:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E44" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E64" t="s">
+        <v>228</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C75" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76" spans="3:18" ht="22.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C77" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E79" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="3:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F80" t="s">
+        <v>237</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C83" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FD9C7F-8B4F-4CDA-AEA0-8E99FC9E7847}">
+  <dimension ref="B1:AD47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:5" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D23" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F30" t="s">
+        <v>242</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H34" t="s">
+        <v>142</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T35" s="3"/>
+    </row>
+    <row r="40" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H40" t="s">
+        <v>147</v>
+      </c>
+      <c r="O40" t="s">
+        <v>148</v>
+      </c>
+      <c r="V40" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AD41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E43" t="s">
+        <v>152</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFD11C-337D-4996-8E8C-35E79D64D613}">
+  <dimension ref="A1:X65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:15" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>191</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31"/>
+      <c r="C31" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>193</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="42" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H46" t="s">
+        <v>196</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G48" t="s">
+        <v>170</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D49" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="4:24" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D63" t="s">
+        <v>165</v>
+      </c>
+      <c r="X63" s="3"/>
+    </row>
+    <row r="65" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>